--- a/data/trans_orig/P56$amigo-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56$amigo-Edad-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4169</v>
+        <v>4199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04195358249898797</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1889261497241596</v>
+        <v>0.1902555202008117</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5748</v>
+        <v>4088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02650359323486208</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1645362917080272</v>
+        <v>0.1170234502835526</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4738</v>
+        <v>4742</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04218233184172183</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.214689316581519</v>
+        <v>0.2148843517085108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4609</v>
+        <v>4314</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02664810245604019</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.131937090932342</v>
+        <v>0.1234804221628895</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5178</v>
+        <v>5198</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.127880552365718</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4025110556539606</v>
+        <v>0.4040567872204434</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -938,19 +938,19 @@
         <v>4936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1880</v>
+        <v>1903</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9699</v>
+        <v>9695</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2236602610148619</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08518865998433095</v>
+        <v>0.08621934188214608</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4394926375866835</v>
+        <v>0.4392890177534886</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -959,19 +959,19 @@
         <v>6581</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2748</v>
+        <v>2781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11909</v>
+        <v>12127</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1883880534415021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07867187510908105</v>
+        <v>0.07959903834397009</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3409076062967468</v>
+        <v>0.3471395543631873</v>
       </c>
     </row>
     <row r="8">
@@ -988,19 +988,19 @@
         <v>2948</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6807</v>
+        <v>6789</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.229124004042191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07496721205181821</v>
+        <v>0.0740432124293004</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5291486912166</v>
+        <v>0.5277282139228995</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>3067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7576</v>
+        <v>7417</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1389935721990587</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04015000579945311</v>
+        <v>0.04072566360609765</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3432995113324376</v>
+        <v>0.3360949593706293</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1030,19 +1030,19 @@
         <v>6015</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2258</v>
+        <v>2643</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11604</v>
+        <v>11673</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1721853551506342</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06464537662149444</v>
+        <v>0.07564665832751549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3321615221469135</v>
+        <v>0.3341381693564138</v>
       </c>
     </row>
     <row r="9">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5026</v>
+        <v>5023</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1247629421936341</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3906931181965214</v>
+        <v>0.3904754350623613</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5685</v>
+        <v>5614</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08280536760217951</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2575840138189424</v>
+        <v>0.2543972954318059</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1101,19 +1101,19 @@
         <v>3433</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7914</v>
+        <v>8290</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09825682700978487</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02567995521720574</v>
+        <v>0.02576989508442455</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2265423865912468</v>
+        <v>0.2373169706273287</v>
       </c>
     </row>
     <row r="10">
@@ -1177,19 +1177,19 @@
         <v>5829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2807</v>
+        <v>2216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8727</v>
+        <v>9379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4530626658308708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.218223120326259</v>
+        <v>0.1722241407459962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6783286145003835</v>
+        <v>0.7290574832923706</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1198,19 +1198,19 @@
         <v>8328</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4238</v>
+        <v>4105</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12967</v>
+        <v>12521</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3773757040508369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.192028225111925</v>
+        <v>0.1860000132657901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5875811937276322</v>
+        <v>0.5673534055443575</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1219,19 +1219,19 @@
         <v>14157</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9052</v>
+        <v>9064</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20007</v>
+        <v>20086</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4052484786098162</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2591031369672697</v>
+        <v>0.2594557792578758</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5727092889520229</v>
+        <v>0.5749762605127468</v>
       </c>
     </row>
     <row r="12">
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3532</v>
+        <v>4358</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06516983556758599</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2745481461840666</v>
+        <v>0.3387481731544302</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1269,19 +1269,19 @@
         <v>2984</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7935</v>
+        <v>6938</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.135211512634075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04095529299932487</v>
+        <v>0.03995860170509206</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3595341675769186</v>
+        <v>0.3143639836429849</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1290,19 +1290,19 @@
         <v>3822</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8615</v>
+        <v>8073</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1094176925534006</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02743624311523317</v>
+        <v>0.02654768133699508</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2466043658397353</v>
+        <v>0.2310888006087636</v>
       </c>
     </row>
     <row r="13">
@@ -1370,19 +1370,19 @@
         <v>3076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8154</v>
+        <v>8116</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08684767843200579</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02828506423362985</v>
+        <v>0.02849572680792272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2302362210512553</v>
+        <v>0.2291549588433061</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4887</v>
+        <v>5605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01562052876183233</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06837213788956646</v>
+        <v>0.07841503179385909</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1412,19 +1412,19 @@
         <v>4192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1034</v>
+        <v>1061</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10285</v>
+        <v>9437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03921990146578458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009673466669268325</v>
+        <v>0.009927745290647376</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09621843340806624</v>
+        <v>0.0882864986100218</v>
       </c>
     </row>
     <row r="15">
@@ -1454,19 +1454,19 @@
         <v>5593</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2218</v>
+        <v>2182</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12021</v>
+        <v>11993</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07824916631160515</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03102683557405039</v>
+        <v>0.03052659020642284</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1681806556008503</v>
+        <v>0.1677961586821407</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -1475,19 +1475,19 @@
         <v>5593</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2180</v>
+        <v>2119</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12182</v>
+        <v>11391</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05232322026277153</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02039497934123856</v>
+        <v>0.01982565557201967</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1139624954741256</v>
+        <v>0.1065702024227698</v>
       </c>
     </row>
     <row r="16">
@@ -1551,19 +1551,19 @@
         <v>8221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4424</v>
+        <v>3659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13650</v>
+        <v>13588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2321294992774096</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1249137937082575</v>
+        <v>0.1033263545589715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3854305667937173</v>
+        <v>0.3836622818984096</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1572,19 +1572,19 @@
         <v>12071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6106</v>
+        <v>5979</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20677</v>
+        <v>19620</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1688753057982153</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08542288219126973</v>
+        <v>0.08364979371867169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2892839841355549</v>
+        <v>0.2744913790301888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1593,19 +1593,19 @@
         <v>20291</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12674</v>
+        <v>13266</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30393</v>
+        <v>29712</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1898330346125204</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.118567389442088</v>
+        <v>0.1241097356682556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2843365502997254</v>
+        <v>0.2779655374275068</v>
       </c>
     </row>
     <row r="18">
@@ -1622,19 +1622,19 @@
         <v>6393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2923</v>
+        <v>2771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11848</v>
+        <v>11851</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1805185624006261</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08254499789492814</v>
+        <v>0.07822770793951705</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3345357977331316</v>
+        <v>0.3346275516458643</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -1643,19 +1643,19 @@
         <v>35321</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26425</v>
+        <v>26533</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44198</v>
+        <v>44078</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4941674181086592</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3696990478268745</v>
+        <v>0.3712094760567726</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6183657999956303</v>
+        <v>0.6166801894535816</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>38</v>
@@ -1664,19 +1664,19 @@
         <v>41714</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31703</v>
+        <v>30785</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>52180</v>
+        <v>52414</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3902475465667324</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2965915981642619</v>
+        <v>0.2880055108181611</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4881578513431035</v>
+        <v>0.4903502556202358</v>
       </c>
     </row>
     <row r="19">
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6246</v>
+        <v>5416</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04980514296677871</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1763624155038718</v>
+        <v>0.1529186335477667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1714,19 +1714,19 @@
         <v>8194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3347</v>
+        <v>3594</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15273</v>
+        <v>14361</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1146456254190066</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04683128679498445</v>
+        <v>0.05027956402827674</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2136805656155604</v>
+        <v>0.2009245706320344</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1735,19 +1735,19 @@
         <v>9958</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5224</v>
+        <v>4859</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18773</v>
+        <v>17867</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09316231857912928</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04886840292585753</v>
+        <v>0.04545357869258185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1756292328434255</v>
+        <v>0.1671513379419271</v>
       </c>
     </row>
     <row r="20">
@@ -1811,19 +1811,19 @@
         <v>14374</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8857</v>
+        <v>8817</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19627</v>
+        <v>20101</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4058572540575805</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2500716556602295</v>
+        <v>0.2489675520034903</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5541949593213336</v>
+        <v>0.5675824025970544</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8415</v>
+        <v>8693</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03393126620816087</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1177292642568522</v>
+        <v>0.1216147797926114</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -1853,19 +1853,19 @@
         <v>16799</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10574</v>
+        <v>10845</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25108</v>
+        <v>24439</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1571598391075135</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09891952258191977</v>
+        <v>0.1014597500759472</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2348953032969112</v>
+        <v>0.2286392097356961</v>
       </c>
     </row>
     <row r="22">
@@ -1882,19 +1882,19 @@
         <v>2623</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7003</v>
+        <v>6292</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07405211980768353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0226835830363372</v>
+        <v>0.02261578855497891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1977404668609274</v>
+        <v>0.1776624877408762</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -1903,19 +1903,19 @@
         <v>7815</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3438</v>
+        <v>3413</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15275</v>
+        <v>15320</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1093325114288014</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04809649194890084</v>
+        <v>0.04774801704301228</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2137097467664679</v>
+        <v>0.2143368816641506</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -1924,19 +1924,19 @@
         <v>10437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5168</v>
+        <v>5155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17910</v>
+        <v>17730</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09764321717985848</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04835127340568556</v>
+        <v>0.04822411475434042</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.16755014800934</v>
+        <v>0.1658690671126114</v>
       </c>
     </row>
     <row r="23">
@@ -2004,19 +2004,19 @@
         <v>3076</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06370620898941061</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02183302243278206</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -2046,19 +2046,19 @@
         <v>5118</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1998</v>
+        <v>1937</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03608766255416745</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
     </row>
     <row r="25">
@@ -2088,19 +2088,19 @@
         <v>6524</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06974027922574513</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2109,19 +2109,19 @@
         <v>6524</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0459990103117232</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
     </row>
     <row r="26">
@@ -2185,19 +2185,19 @@
         <v>9866</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2043512804126602</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -2206,19 +2206,19 @@
         <v>17006</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.181800171669979</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>26</v>
@@ -2227,19 +2227,19 @@
         <v>26873</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1894771116380039</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
     </row>
     <row r="28">
@@ -2256,19 +2256,19 @@
         <v>9341</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.193469989114614</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>34</v>
@@ -2277,19 +2277,19 @@
         <v>38389</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4103748093278971</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>44</v>
@@ -2298,19 +2298,19 @@
         <v>47729</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3365351900633657</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
     </row>
     <row r="29">
@@ -2327,19 +2327,19 @@
         <v>3369</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06977843012436839</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -2348,19 +2348,19 @@
         <v>10022</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1071338722382753</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -2369,19 +2369,19 @@
         <v>13391</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09441718101658243</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
     </row>
     <row r="30">
@@ -2445,19 +2445,19 @@
         <v>20202</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4184356282156413</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2466,19 +2466,19 @@
         <v>10754</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1149566732011205</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -2487,19 +2487,19 @@
         <v>30956</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2182682108194892</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
     </row>
     <row r="32">
@@ -2516,19 +2516,19 @@
         <v>3461</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07168534256005003</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>10</v>
@@ -2537,19 +2537,19 @@
         <v>10799</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1154378850327528</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2558,19 +2558,19 @@
         <v>14260</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1005434669425375</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
     </row>
     <row r="33">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5973</v>
+        <v>5102</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02362366745517168</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1417558987988525</v>
+        <v>0.1210981523354728</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5070</v>
+        <v>4958</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01565954736302095</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07976900959476398</v>
+        <v>0.07799705693849623</v>
       </c>
     </row>
     <row r="5">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5731</v>
+        <v>4658</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05135906321920521</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2674599067041783</v>
+        <v>0.2173892033312814</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -2960,19 +2960,19 @@
         <v>2907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7779</v>
+        <v>7802</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06899355860764673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02210532307109769</v>
+        <v>0.02200815546794015</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1846191357619898</v>
+        <v>0.1851781420821402</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -2981,19 +2981,19 @@
         <v>4008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9148</v>
+        <v>9550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06304853591781537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01540398095244909</v>
+        <v>0.01533360766229728</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1439199684342007</v>
+        <v>0.1502383571010674</v>
       </c>
     </row>
     <row r="6">
@@ -3057,19 +3057,19 @@
         <v>3148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>971</v>
+        <v>926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7829</v>
+        <v>7486</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1469033293637803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04532559301639698</v>
+        <v>0.04320125222002844</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3653376033465613</v>
+        <v>0.3493314981374294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -3078,19 +3078,19 @@
         <v>9758</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4777</v>
+        <v>4869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15085</v>
+        <v>15546</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2315937257216002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1133795995521864</v>
+        <v>0.1155481982898675</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3580253199409723</v>
+        <v>0.3689575701838196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -3099,19 +3099,19 @@
         <v>12906</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7030</v>
+        <v>7295</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19909</v>
+        <v>20732</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2030425073925484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1106018089663519</v>
+        <v>0.1147668849779276</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3132140951910944</v>
+        <v>0.3261631025970358</v>
       </c>
     </row>
     <row r="8">
@@ -3128,19 +3128,19 @@
         <v>4076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1051</v>
+        <v>1034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8657</v>
+        <v>8615</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.190218550543261</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04905726318075878</v>
+        <v>0.04827021678495554</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4039710970849861</v>
+        <v>0.4020093145761717</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -3149,19 +3149,19 @@
         <v>9713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5152</v>
+        <v>4612</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16229</v>
+        <v>16007</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2305176265527389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1222702151873515</v>
+        <v>0.1094563515714167</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.385178457050037</v>
+        <v>0.3799083988218815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -3173,16 +3173,16 @@
         <v>7646</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21427</v>
+        <v>21168</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2169318155625012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1202825125336366</v>
+        <v>0.1202940403783138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3370986732237363</v>
+        <v>0.3330190873211192</v>
       </c>
     </row>
     <row r="9">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4215</v>
+        <v>4326</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0463842050889711</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1967139594707189</v>
+        <v>0.2018694819478202</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -3220,19 +3220,19 @@
         <v>7699</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3735</v>
+        <v>3767</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13663</v>
+        <v>13142</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1827284772449013</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08864647593842924</v>
+        <v>0.08940380371660465</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3242684815396399</v>
+        <v>0.3118983866741507</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -3241,19 +3241,19 @@
         <v>8693</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3952</v>
+        <v>4522</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14575</v>
+        <v>15043</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.136763465275983</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06216736187345843</v>
+        <v>0.07113534316612927</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2292982333328561</v>
+        <v>0.2366527978972064</v>
       </c>
     </row>
     <row r="10">
@@ -3273,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4537</v>
+        <v>5090</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04655968594753842</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.211712545050326</v>
+        <v>0.2375311129831292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4689</v>
+        <v>4095</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01569641678383184</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07376446115641774</v>
+        <v>0.06442785071106684</v>
       </c>
     </row>
     <row r="11">
@@ -3333,19 +3333,19 @@
         <v>14261</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9549</v>
+        <v>9571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18234</v>
+        <v>18335</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6654784952010243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.445627351485011</v>
+        <v>0.4466422733371571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8508900508705604</v>
+        <v>0.8556046978020616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -3354,19 +3354,19 @@
         <v>10969</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5813</v>
+        <v>5855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17423</v>
+        <v>17829</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2603299962801938</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1379680105194522</v>
+        <v>0.1389628463407408</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4134923511582753</v>
+        <v>0.4231455440355427</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -3375,19 +3375,19 @@
         <v>25230</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17726</v>
+        <v>18058</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33255</v>
+        <v>33621</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3969155330806502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2788715365139295</v>
+        <v>0.2840908909421373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5231782505170388</v>
+        <v>0.5289257457210561</v>
       </c>
     </row>
     <row r="12">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5731</v>
+        <v>4658</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05135906321920521</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2674599067041783</v>
+        <v>0.2173892033312814</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -3425,19 +3425,19 @@
         <v>3937</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8132</v>
+        <v>9063</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09343864482629126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02344283622344857</v>
+        <v>0.02332285068822712</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1930008765654508</v>
+        <v>0.2151057251254211</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -3446,19 +3446,19 @@
         <v>5038</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1870</v>
+        <v>1932</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10632</v>
+        <v>10328</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07925258154961215</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02941333277428293</v>
+        <v>0.03039190255835245</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1672596758572964</v>
+        <v>0.1624820927641136</v>
       </c>
     </row>
     <row r="13">
@@ -3539,19 +3539,19 @@
         <v>4440</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11051</v>
+        <v>10111</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.027220016460486</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006856353491317812</v>
+        <v>0.006772359417556169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0677532473165145</v>
+        <v>0.06198753911378115</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -3560,19 +3560,19 @@
         <v>4440</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10156</v>
+        <v>11258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02016413938206649</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005026339994612058</v>
+        <v>0.005084109491549268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0461235263798538</v>
+        <v>0.05112832060170994</v>
       </c>
     </row>
     <row r="15">
@@ -3589,19 +3589,19 @@
         <v>7714</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3337</v>
+        <v>3478</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13915</v>
+        <v>15023</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1351570346598611</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0584605083797009</v>
+        <v>0.06093569900320291</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2437908501640021</v>
+        <v>0.2632183349613227</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -3610,19 +3610,19 @@
         <v>37939</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>27888</v>
+        <v>27716</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>50352</v>
+        <v>50638</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.232598456285496</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1709750723157752</v>
+        <v>0.1699198938403269</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3087025821569143</v>
+        <v>0.3104534812772964</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>42</v>
@@ -3631,19 +3631,19 @@
         <v>45653</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>34988</v>
+        <v>34630</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>59573</v>
+        <v>58578</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2073400331565096</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1589005299456611</v>
+        <v>0.1572779965218319</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2705556926575675</v>
+        <v>0.2660393431351301</v>
       </c>
     </row>
     <row r="16">
@@ -3707,19 +3707,19 @@
         <v>17142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10310</v>
+        <v>10785</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24182</v>
+        <v>25036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.300339849288876</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1806313599213218</v>
+        <v>0.1889554433549378</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4236882104370518</v>
+        <v>0.4386403477145448</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -3728,19 +3728,19 @@
         <v>51176</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39576</v>
+        <v>39204</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63640</v>
+        <v>63610</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3137509887647526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2426311332677714</v>
+        <v>0.2403544097200926</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3901676827502981</v>
+        <v>0.3899815994293403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -3749,19 +3749,19 @@
         <v>68318</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53509</v>
+        <v>55636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>83525</v>
+        <v>83043</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3102746002856828</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2430155044842947</v>
+        <v>0.2526750859531497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3793387771738581</v>
+        <v>0.3771483318092348</v>
       </c>
     </row>
     <row r="18">
@@ -3778,19 +3778,19 @@
         <v>11889</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6324</v>
+        <v>5671</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19848</v>
+        <v>20077</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2082990947158782</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1108055779827402</v>
+        <v>0.09936297128002361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3477524540604816</v>
+        <v>0.3517548868743313</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>43</v>
@@ -3799,19 +3799,19 @@
         <v>47938</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36308</v>
+        <v>36582</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>60500</v>
+        <v>61965</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2939007279636455</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2226012981481001</v>
+        <v>0.2242807552496131</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3709160558658912</v>
+        <v>0.3798994576463685</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>52</v>
@@ -3820,19 +3820,19 @@
         <v>59827</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46979</v>
+        <v>45613</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75250</v>
+        <v>73858</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.271711373200213</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2133589030240874</v>
+        <v>0.2071553855469536</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3417554622054228</v>
+        <v>0.3354342609273834</v>
       </c>
     </row>
     <row r="19">
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5796</v>
+        <v>4967</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01860178056427142</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1015489338519084</v>
+        <v>0.08702568556219763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3870,19 +3870,19 @@
         <v>5753</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2246</v>
+        <v>2298</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11722</v>
+        <v>13696</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03526883110831099</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01377000380499619</v>
+        <v>0.01408562728958134</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07186759356896522</v>
+        <v>0.08397059511188744</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3891,19 +3891,19 @@
         <v>6814</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3235</v>
+        <v>3217</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14511</v>
+        <v>13756</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03094845679592717</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01469313098442536</v>
+        <v>0.014610057874737</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06590381955848694</v>
+        <v>0.06247334261996116</v>
       </c>
     </row>
     <row r="20">
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6851</v>
+        <v>7145</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01385498073804622</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0420050946813221</v>
+        <v>0.04380674301564766</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6858</v>
+        <v>8554</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01026354128563309</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03114810295402127</v>
+        <v>0.03884886295557931</v>
       </c>
     </row>
     <row r="21">
@@ -3983,19 +3983,19 @@
         <v>19377</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11967</v>
+        <v>12014</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27701</v>
+        <v>28023</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3395027903477152</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2096704382455097</v>
+        <v>0.2104850375642469</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4853296863414244</v>
+        <v>0.4909701960021087</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -4004,19 +4004,19 @@
         <v>18735</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10927</v>
+        <v>12037</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28426</v>
+        <v>28575</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1148635882813609</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06699181915606793</v>
+        <v>0.07379542077225705</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1742733470861839</v>
+        <v>0.1751879355017896</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -4025,19 +4025,19 @@
         <v>38113</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25836</v>
+        <v>26991</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51120</v>
+        <v>51628</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1730937733760446</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1173362546901813</v>
+        <v>0.1225828843664762</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2321688567823663</v>
+        <v>0.2344746964576772</v>
       </c>
     </row>
     <row r="22">
@@ -4054,19 +4054,19 @@
         <v>6329</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2719</v>
+        <v>2920</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12877</v>
+        <v>12837</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1108808892870436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04763223478418227</v>
+        <v>0.05116200292742748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2256079882545464</v>
+        <v>0.2249116986460747</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -4075,19 +4075,19 @@
         <v>25892</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17306</v>
+        <v>16179</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>37707</v>
+        <v>37344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.158739857180964</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1061031196550442</v>
+        <v>0.09919091585614553</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2311743886014045</v>
+        <v>0.2289475909024895</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -4096,19 +4096,19 @@
         <v>32221</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22070</v>
+        <v>22204</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44558</v>
+        <v>44060</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1463340235897267</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1002312510849052</v>
+        <v>0.1008431594898397</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2023655896189976</v>
+        <v>0.2001047648384963</v>
       </c>
     </row>
     <row r="23">
@@ -4189,19 +4189,19 @@
         <v>5435</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2136</v>
+        <v>1976</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11934</v>
+        <v>11896</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02648171751807309</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01040494868482972</v>
+        <v>0.009626596344775619</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05814385693959951</v>
+        <v>0.05795821696181744</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -4210,19 +4210,19 @@
         <v>5435</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2129</v>
+        <v>2090</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12360</v>
+        <v>11859</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01915504669091564</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007504810778422361</v>
+        <v>0.007367373766466899</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04355894820224604</v>
+        <v>0.04179232966067827</v>
       </c>
     </row>
     <row r="25">
@@ -4239,19 +4239,19 @@
         <v>8815</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1122831961153217</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -4260,19 +4260,19 @@
         <v>40846</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30110</v>
+        <v>29788</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54576</v>
+        <v>52982</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1990118041695196</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1467034755194083</v>
+        <v>0.1451355415317845</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2659074905461713</v>
+        <v>0.2581401485362781</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -4281,19 +4281,19 @@
         <v>49661</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37511</v>
+        <v>37746</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63931</v>
+        <v>65453</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1750166851944381</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1321976110607689</v>
+        <v>0.1330239606952352</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2253073350252393</v>
+        <v>0.2306721762522151</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>20290</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2584571864598823</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>57</v>
@@ -4378,19 +4378,19 @@
         <v>60934</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>48329</v>
+        <v>48778</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>75320</v>
+        <v>74875</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2968848224592391</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2354706799449807</v>
+        <v>0.2376589318981768</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3669746849415855</v>
+        <v>0.364809835805301</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>76</v>
@@ -4399,19 +4399,19 @@
         <v>81224</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>65642</v>
+        <v>65087</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>97093</v>
+        <v>96671</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2862530860757903</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2313366517240805</v>
+        <v>0.229382702582463</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3421768818472574</v>
+        <v>0.340689075035521</v>
       </c>
     </row>
     <row r="28">
@@ -4428,19 +4428,19 @@
         <v>15965</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2033637550997546</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>52</v>
@@ -4449,19 +4449,19 @@
         <v>57651</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45678</v>
+        <v>45488</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>71905</v>
+        <v>72089</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2808887325568112</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.22255263345774</v>
+        <v>0.2216274178866032</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3503392074315798</v>
+        <v>0.3512356194337084</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -4470,19 +4470,19 @@
         <v>73616</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>59482</v>
+        <v>56592</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>91525</v>
+        <v>89886</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.259439973037229</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2096272009342411</v>
+        <v>0.1994443833652634</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3225555577086267</v>
+        <v>0.3167780401586638</v>
       </c>
     </row>
     <row r="29">
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -4511,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -4520,19 +4520,19 @@
         <v>13452</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7635</v>
+        <v>7468</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21989</v>
+        <v>22350</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06554100453484765</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03719940870885177</v>
+        <v>0.03638564029482375</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1071349755720877</v>
+        <v>0.1088952952503818</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -4541,19 +4541,19 @@
         <v>15508</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8826</v>
+        <v>8925</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24325</v>
+        <v>24093</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05465252393892985</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.031105604697625</v>
+        <v>0.03145259013445022</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08572784801071175</v>
+        <v>0.08491042897157507</v>
       </c>
     </row>
     <row r="30">
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6147</v>
+        <v>4452</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01270912315344844</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07829669933265754</v>
+        <v>0.05671399783699669</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6872</v>
+        <v>6772</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01101067457895673</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03348057238624452</v>
+        <v>0.03299347804590688</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -4612,19 +4612,19 @@
         <v>3258</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8246</v>
+        <v>8813</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01148058268116584</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0</v>
+        <v>0.003449145999465008</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02906178828018855</v>
+        <v>0.03105962581114879</v>
       </c>
     </row>
     <row r="31">
@@ -4641,19 +4641,19 @@
         <v>33638</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4284824579228118</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>27</v>
@@ -4662,19 +4662,19 @@
         <v>29704</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>20472</v>
+        <v>20512</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>41587</v>
+        <v>41476</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.144726567381399</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09974279094295731</v>
+        <v>0.09993859203634255</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2026236624223709</v>
+        <v>0.2020823207788786</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>55</v>
@@ -4683,19 +4683,19 @@
         <v>63342</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49424</v>
+        <v>47261</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>79588</v>
+        <v>78376</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2232330314672347</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1741814130662922</v>
+        <v>0.166558726707617</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2804878023118416</v>
+        <v>0.276216665746826</v>
       </c>
     </row>
     <row r="32">
@@ -4712,19 +4712,19 @@
         <v>7429</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09463356711509734</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -4733,19 +4733,19 @@
         <v>29829</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20518</v>
+        <v>19684</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41730</v>
+        <v>41665</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1453340904023522</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09997042115331738</v>
+        <v>0.09590479593088026</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.203319624188977</v>
+        <v>0.203003547946867</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>33</v>
@@ -4754,19 +4754,19 @@
         <v>37258</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>26964</v>
+        <v>26208</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50391</v>
+        <v>49401</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1313068263233954</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09502748119299462</v>
+        <v>0.09236285276493465</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1775890391609752</v>
+        <v>0.1741008541592499</v>
       </c>
     </row>
     <row r="33">
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4461</v>
+        <v>5033</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02387208626997248</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1083308308156473</v>
+        <v>0.1222170454551897</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4064</v>
+        <v>5891</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01578512525066671</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06525069256880854</v>
+        <v>0.09459359263567173</v>
       </c>
     </row>
     <row r="5">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4142</v>
+        <v>4466</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04545319565507807</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1963082871429649</v>
+        <v>0.2116931774715157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8405</v>
+        <v>6616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04123693970893732</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2041028907095315</v>
+        <v>0.160651302959879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10429</v>
+        <v>9340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04266524794719737</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.167448765834212</v>
+        <v>0.1499641648680507</v>
       </c>
     </row>
     <row r="6">
@@ -5253,19 +5253,19 @@
         <v>2897</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7127</v>
+        <v>7211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1373173644297241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0416329631024437</v>
+        <v>0.04166631889651527</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3377864107146644</v>
+        <v>0.3418056437761551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5274,19 +5274,19 @@
         <v>5304</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2056</v>
+        <v>2021</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11420</v>
+        <v>10613</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.128800432022606</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04991462955279306</v>
+        <v>0.04908297544293928</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2773108265403543</v>
+        <v>0.2577023138634915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -5295,19 +5295,19 @@
         <v>8202</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3977</v>
+        <v>3971</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14726</v>
+        <v>14436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1316856469804232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06385390362417581</v>
+        <v>0.06375567641039157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2364381006902981</v>
+        <v>0.2317919586409236</v>
       </c>
     </row>
     <row r="8">
@@ -5324,19 +5324,19 @@
         <v>3947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8127</v>
+        <v>8811</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1871013658370838</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04622377026112914</v>
+        <v>0.04680053990976489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3851810142489549</v>
+        <v>0.4175989766839195</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -5345,19 +5345,19 @@
         <v>10436</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5256</v>
+        <v>5658</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17053</v>
+        <v>17325</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2534114933853041</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1276233618319629</v>
+        <v>0.1373971824624323</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4140857683595835</v>
+        <v>0.420684122389268</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -5366,19 +5366,19 @@
         <v>14384</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8020</v>
+        <v>8235</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21897</v>
+        <v>22121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2309481271506499</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1287719404962373</v>
+        <v>0.1322181880238114</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3515899139973754</v>
+        <v>0.3551824327325723</v>
       </c>
     </row>
     <row r="9">
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6634</v>
+        <v>9204</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0846940221693058</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3144533880669586</v>
+        <v>0.436242800143686</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -5416,19 +5416,19 @@
         <v>12545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7220</v>
+        <v>7256</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19297</v>
+        <v>19438</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3046141036781425</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1753262081788318</v>
+        <v>0.1761958280765684</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4685775424901703</v>
+        <v>0.4720048714571907</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -5437,19 +5437,19 @@
         <v>14332</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8153</v>
+        <v>8710</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22015</v>
+        <v>22710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2301134879208352</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1309047933898813</v>
+        <v>0.1398577858440079</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.353481076788751</v>
+        <v>0.3646378230058863</v>
       </c>
     </row>
     <row r="10">
@@ -5513,19 +5513,19 @@
         <v>15394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10233</v>
+        <v>9734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19111</v>
+        <v>19060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7296310821746704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4850315018191844</v>
+        <v>0.4613549195166201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9058348525846934</v>
+        <v>0.9034025732418822</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -5534,19 +5534,19 @@
         <v>11902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6359</v>
+        <v>6725</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17950</v>
+        <v>17323</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2890204029568252</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1544007002649075</v>
+        <v>0.1633003698722826</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4358653955280211</v>
+        <v>0.4206381710886957</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>27</v>
@@ -5555,19 +5555,19 @@
         <v>27297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19819</v>
+        <v>19168</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35270</v>
+        <v>35095</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4382826562524883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3182241072400706</v>
+        <v>0.3077694713198798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5663056433229541</v>
+        <v>0.5634905176505074</v>
       </c>
     </row>
     <row r="12">
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5103</v>
+        <v>5220</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02509267169191698</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1239218707383765</v>
+        <v>0.1267637575119597</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5254</v>
+        <v>5154</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01659222244136206</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08435867960388282</v>
+        <v>0.08275630475337807</v>
       </c>
     </row>
     <row r="13">
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7327</v>
+        <v>8497</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01837846966945981</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05610011821383111</v>
+        <v>0.06505706927752139</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7585</v>
+        <v>8215</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01321739008671535</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04176524233998998</v>
+        <v>0.04523285567402729</v>
       </c>
     </row>
     <row r="15">
@@ -5761,19 +5761,19 @@
         <v>3257</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8225</v>
+        <v>7685</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06386551229974319</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01606232850874594</v>
+        <v>0.01625311057125834</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1612818480964297</v>
+        <v>0.1506839609553154</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -5782,19 +5782,19 @@
         <v>9945</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3813</v>
+        <v>4842</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>18854</v>
+        <v>18754</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07614411953808778</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02919628063911052</v>
+        <v>0.03707072160051378</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1443562671200512</v>
+        <v>0.1435904937440747</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -5803,19 +5803,19 @@
         <v>13202</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7008</v>
+        <v>7477</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>22316</v>
+        <v>22455</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0726960158459907</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03858927440108697</v>
+        <v>0.04117308499251809</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.122884062904911</v>
+        <v>0.1236488492433919</v>
       </c>
     </row>
     <row r="16">
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4595</v>
+        <v>4031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01443060222847838</v>
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09010954447690686</v>
+        <v>0.07903658403990374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3762</v>
+        <v>3814</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004052431343174803</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02071610397423395</v>
+        <v>0.02100373859912585</v>
       </c>
     </row>
     <row r="17">
@@ -5895,19 +5895,19 @@
         <v>9417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5096</v>
+        <v>5063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15246</v>
+        <v>15364</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.184658241925085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09992883518383153</v>
+        <v>0.0992690248632008</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2989385806828553</v>
+        <v>0.3012674136354361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -5916,19 +5916,19 @@
         <v>38103</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26909</v>
+        <v>27453</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50943</v>
+        <v>50173</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2917406651675533</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2060347084676497</v>
+        <v>0.2101933542544588</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3900536368451613</v>
+        <v>0.3841563621136508</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -5937,19 +5937,19 @@
         <v>47521</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35605</v>
+        <v>36132</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62337</v>
+        <v>63377</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.261669559237233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.196058071603425</v>
+        <v>0.1989593086428297</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3432546915151186</v>
+        <v>0.3489803442065373</v>
       </c>
     </row>
     <row r="18">
@@ -5966,19 +5966,19 @@
         <v>8019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4042</v>
+        <v>3962</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13930</v>
+        <v>13065</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1572411069531364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07925817264406451</v>
+        <v>0.07767986758944725</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2731414948361106</v>
+        <v>0.2561879929152538</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -5987,19 +5987,19 @@
         <v>35619</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25237</v>
+        <v>24355</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49023</v>
+        <v>47686</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2727193895906115</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1932272167523586</v>
+        <v>0.1864790492782282</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3753519249255352</v>
+        <v>0.3651126945562003</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>37</v>
@@ -6008,19 +6008,19 @@
         <v>43638</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>32208</v>
+        <v>32009</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>56575</v>
+        <v>56486</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2402905411886659</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1773508480840318</v>
+        <v>0.1762542666349747</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3115276986625348</v>
+        <v>0.3110362153278183</v>
       </c>
     </row>
     <row r="19">
@@ -6037,19 +6037,19 @@
         <v>4045</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>910</v>
+        <v>1487</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9353</v>
+        <v>9768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07930647176129654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01784388070588129</v>
+        <v>0.02914959826211738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.183395593378779</v>
+        <v>0.191533274078321</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -6058,19 +6058,19 @@
         <v>16068</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8874</v>
+        <v>8964</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26232</v>
+        <v>27069</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1230258047624258</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06794335542269911</v>
+        <v>0.06863495165667789</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2008515564140782</v>
+        <v>0.2072586605442009</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -6079,19 +6079,19 @@
         <v>20112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12220</v>
+        <v>12318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32310</v>
+        <v>31901</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.110748451915236</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06728846757468143</v>
+        <v>0.06782776130876844</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1779126849408148</v>
+        <v>0.1756594035392522</v>
       </c>
     </row>
     <row r="20">
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6535</v>
+        <v>7011</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04100392916781538</v>
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1281472721123817</v>
+        <v>0.1374823368552754</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7682</v>
+        <v>7577</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01886919012594406</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05881639961689022</v>
+        <v>0.05801312245972057</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -6150,19 +6150,19 @@
         <v>4556</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1242</v>
+        <v>1256</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11440</v>
+        <v>11710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0250851129853002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006840881069402286</v>
+        <v>0.006916977357263978</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06299293294044092</v>
+        <v>0.064482238868571</v>
       </c>
     </row>
     <row r="21">
@@ -6179,19 +6179,19 @@
         <v>18586</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12478</v>
+        <v>12352</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25037</v>
+        <v>26232</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3644407327288283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2446731379748603</v>
+        <v>0.2422000519645969</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4909315762670167</v>
+        <v>0.5143553297624994</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -6200,19 +6200,19 @@
         <v>12290</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5695</v>
+        <v>5749</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23765</v>
+        <v>23637</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09410141195452285</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04360124687933123</v>
+        <v>0.04401912728985356</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1819617271647823</v>
+        <v>0.1809759670952777</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -6221,19 +6221,19 @@
         <v>30876</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21362</v>
+        <v>21904</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42534</v>
+        <v>43508</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1700186550087582</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.117629927719373</v>
+        <v>0.120613226834915</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2342135421559674</v>
+        <v>0.2395737444396704</v>
       </c>
     </row>
     <row r="22">
@@ -6250,19 +6250,19 @@
         <v>9746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5323</v>
+        <v>5068</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16085</v>
+        <v>15758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1911074319165635</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1043784508763493</v>
+        <v>0.09936608028261337</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3153999734714609</v>
+        <v>0.308991165981818</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -6271,19 +6271,19 @@
         <v>25535</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15361</v>
+        <v>16102</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38081</v>
+        <v>37973</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1955098503424953</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1176139913009563</v>
+        <v>0.1232902426958519</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2915748779273819</v>
+        <v>0.2907431123444244</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -6292,19 +6292,19 @@
         <v>35281</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23906</v>
+        <v>24933</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47714</v>
+        <v>49714</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1942735541621593</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1316392310733678</v>
+        <v>0.1372921932162372</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2627365587985236</v>
+        <v>0.2737482743464251</v>
       </c>
     </row>
     <row r="23">
@@ -6385,19 +6385,19 @@
         <v>3383</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9161</v>
+        <v>8435</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01969543572578491</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0</v>
+        <v>0.005615903245633764</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05332688124286409</v>
+        <v>0.04910339140021838</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -6409,16 +6409,16 @@
         <v>977</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8779</v>
+        <v>9130</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01387310789264863</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004005950159071041</v>
+        <v>0.004004964221675508</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03599789548860702</v>
+        <v>0.03743495573652385</v>
       </c>
     </row>
     <row r="25">
@@ -6435,19 +6435,19 @@
         <v>4216</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05847736951517589</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -6456,19 +6456,19 @@
         <v>11643</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5784</v>
+        <v>5260</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21410</v>
+        <v>20992</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06777593983061829</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03367000237500649</v>
+        <v>0.03061889658127953</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1246315398958958</v>
+        <v>0.1221962467230234</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -6477,19 +6477,19 @@
         <v>15859</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9177</v>
+        <v>8941</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25918</v>
+        <v>25086</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06502711388384845</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03762872436395551</v>
+        <v>0.03666172842255344</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1062697395570246</v>
+        <v>0.1028609228853934</v>
       </c>
     </row>
     <row r="26">
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3288</v>
+        <v>3363</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01020766022857173</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04560662091644813</v>
+        <v>0.04664109849536623</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3767</v>
+        <v>3784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003017569404783654</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01544489319136979</v>
+        <v>0.01551695708368047</v>
       </c>
     </row>
     <row r="27">
@@ -6569,19 +6569,19 @@
         <v>12314</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1708045041030374</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>34</v>
@@ -6590,19 +6590,19 @@
         <v>43407</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>32000</v>
+        <v>30624</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>56668</v>
+        <v>55836</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2526795562722639</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1862756040773259</v>
+        <v>0.1782671614827454</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3298738081073748</v>
+        <v>0.3250293695501716</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>48</v>
@@ -6611,19 +6611,19 @@
         <v>55722</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>42113</v>
+        <v>42208</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>70054</v>
+        <v>71623</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.228475806646137</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1726767102243293</v>
+        <v>0.1730634157465337</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2872413927789017</v>
+        <v>0.2936768993529574</v>
       </c>
     </row>
     <row r="28">
@@ -6640,19 +6640,19 @@
         <v>11967</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.165979352202545</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -6661,19 +6661,19 @@
         <v>46055</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33573</v>
+        <v>33698</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59491</v>
+        <v>59433</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2680907731853339</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1954324231674708</v>
+        <v>0.1961612327216811</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3463067082633674</v>
+        <v>0.345964621177146</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>50</v>
@@ -6682,19 +6682,19 @@
         <v>58021</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>44299</v>
+        <v>45284</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>72758</v>
+        <v>73120</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2379047860994608</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1816392846346663</v>
+        <v>0.1856763357868216</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2983292747417945</v>
+        <v>0.2998117437841211</v>
       </c>
     </row>
     <row r="29">
@@ -6711,19 +6711,19 @@
         <v>5831</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08088307352291238</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -6732,19 +6732,19 @@
         <v>28613</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1665573511531038</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>29</v>
@@ -6753,19 +6753,19 @@
         <v>34444</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1412304816095649</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
     </row>
     <row r="30">
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6807</v>
+        <v>8673</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02900462297792928</v>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09440993501924061</v>
+        <v>0.1202939327963745</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8475</v>
+        <v>8653</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01434574323962619</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04933561670297586</v>
+        <v>0.05036938913817583</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -6824,19 +6824,19 @@
         <v>4556</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1226</v>
+        <v>1252</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10551</v>
+        <v>10949</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0186791738217779</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.005026056760785478</v>
+        <v>0.005135035215573514</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04326015995184579</v>
+        <v>0.04489434194098725</v>
       </c>
     </row>
     <row r="31">
@@ -6853,19 +6853,19 @@
         <v>33980</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4713092916578513</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>20</v>
@@ -6874,19 +6874,19 @@
         <v>24193</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15483</v>
+        <v>15306</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36151</v>
+        <v>35917</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1408286799002356</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0901263783773526</v>
+        <v>0.08909686377976114</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2104396402769177</v>
+        <v>0.2090752228145472</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>56</v>
@@ -6895,19 +6895,19 @@
         <v>58173</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>44820</v>
+        <v>45064</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>73631</v>
+        <v>73099</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2385247395832001</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1837767819076121</v>
+        <v>0.1847759374319234</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3019095183625791</v>
+        <v>0.2997291478307761</v>
       </c>
     </row>
     <row r="32">
@@ -6924,19 +6924,19 @@
         <v>9746</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1351821428706154</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>20</v>
@@ -6945,19 +6945,19 @@
         <v>26568</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>17253</v>
+        <v>16272</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38527</v>
+        <v>40246</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1546563186860344</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1004342210611629</v>
+        <v>0.09472128898464305</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2242724049813964</v>
+        <v>0.2342792439694209</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>31</v>
@@ -6966,19 +6966,19 @@
         <v>36314</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>25423</v>
+        <v>25617</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>49428</v>
+        <v>50892</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1488993992933316</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1042401513849327</v>
+        <v>0.1050385281024619</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2026692568420442</v>
+        <v>0.2086710574097864</v>
       </c>
     </row>
     <row r="33">
@@ -7284,19 +7284,19 @@
         <v>2335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6333</v>
+        <v>5872</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07535432591757116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01571155817075162</v>
+        <v>0.01603918471191737</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2044039494677136</v>
+        <v>0.1895377751441194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -7305,19 +7305,19 @@
         <v>2561</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>631</v>
+        <v>685</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6159</v>
+        <v>6300</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04306272077096541</v>
+        <v>0.0430627207709654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01061386553007945</v>
+        <v>0.01151885237743454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1035816413095839</v>
+        <v>0.1059514740138401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -7326,19 +7326,19 @@
         <v>4895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1895</v>
+        <v>1990</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9429</v>
+        <v>9456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05412426280397268</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02095466278562976</v>
+        <v>0.02200217122043558</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1042558192846457</v>
+        <v>0.1045488713837874</v>
       </c>
     </row>
     <row r="5">
@@ -7355,19 +7355,19 @@
         <v>2699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5831</v>
+        <v>6222</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08712240095843816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03043832843889333</v>
+        <v>0.03199999168887794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1881998358753197</v>
+        <v>0.2008306974399441</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -7376,19 +7376,19 @@
         <v>9257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5469</v>
+        <v>5706</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13458</v>
+        <v>13836</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1556778203225779</v>
+        <v>0.1556778203225778</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09196884778908845</v>
+        <v>0.09595477501863331</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2263265904789323</v>
+        <v>0.2326857417969053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -7397,19 +7397,19 @@
         <v>11956</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8096</v>
+        <v>7671</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17305</v>
+        <v>17309</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1321940495578848</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08950862633576741</v>
+        <v>0.08481151642778881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1913325423591556</v>
+        <v>0.1913820186910645</v>
       </c>
     </row>
     <row r="6">
@@ -7473,19 +7473,19 @@
         <v>11526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7560</v>
+        <v>7345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16299</v>
+        <v>16316</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3720111079691467</v>
+        <v>0.3720111079691466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.244024009143909</v>
+        <v>0.2370809069752827</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5260794225756078</v>
+        <v>0.5266424663243093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -7494,19 +7494,19 @@
         <v>32130</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26487</v>
+        <v>26342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37887</v>
+        <v>38010</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5403476776616611</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4454516849362263</v>
+        <v>0.4430052292163911</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6371640803180405</v>
+        <v>0.6392265279776406</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>77</v>
@@ -7515,19 +7515,19 @@
         <v>43656</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36578</v>
+        <v>35865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51200</v>
+        <v>50693</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4826837110396201</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4044232410579225</v>
+        <v>0.3965456070221386</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5660997447085142</v>
+        <v>0.560488601975061</v>
       </c>
     </row>
     <row r="8">
@@ -7544,19 +7544,19 @@
         <v>7668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4087</v>
+        <v>3974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11849</v>
+        <v>12449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2474889331939624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1319031902568434</v>
+        <v>0.1282656378834834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3824566334255572</v>
+        <v>0.4017996274315599</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -7565,19 +7565,19 @@
         <v>12994</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8503</v>
+        <v>8854</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17817</v>
+        <v>18439</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2185195766467835</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1430055066145908</v>
+        <v>0.14889860653867</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2996289069002717</v>
+        <v>0.3100923777050456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -7586,19 +7586,19 @@
         <v>20661</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14973</v>
+        <v>14709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27430</v>
+        <v>28091</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.228443077001162</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1655444638083511</v>
+        <v>0.1626340893326748</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3032849469812605</v>
+        <v>0.3105925878813637</v>
       </c>
     </row>
     <row r="9">
@@ -7615,19 +7615,19 @@
         <v>2245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5337</v>
+        <v>5172</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0724629465886797</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01899418898870385</v>
+        <v>0.01824352183821934</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1722624147713861</v>
+        <v>0.1669422437470759</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -7636,19 +7636,19 @@
         <v>3377</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1228</v>
+        <v>1284</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6777</v>
+        <v>6882</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05678905655797083</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02064622274848963</v>
+        <v>0.02159168663309239</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1139664360946407</v>
+        <v>0.1157361897773786</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -7657,19 +7657,19 @@
         <v>5622</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2943</v>
+        <v>2793</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10146</v>
+        <v>9851</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06215817316299176</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0325383236447469</v>
+        <v>0.03088384530133284</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1121778757660437</v>
+        <v>0.108918100933261</v>
       </c>
     </row>
     <row r="10">
@@ -7733,19 +7733,19 @@
         <v>17622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13123</v>
+        <v>13061</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21834</v>
+        <v>22008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5687694799944464</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4235586609419201</v>
+        <v>0.4215799500675029</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7047212155912964</v>
+        <v>0.7103472260522636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -7754,19 +7754,19 @@
         <v>20592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15622</v>
+        <v>15360</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26129</v>
+        <v>26179</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3462970003418654</v>
+        <v>0.3462970003418653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.262730519099369</v>
+        <v>0.2583223521636422</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4394253399245792</v>
+        <v>0.4402662380470074</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -7775,19 +7775,19 @@
         <v>38213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31093</v>
+        <v>31084</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>45631</v>
+        <v>45585</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4225053112539989</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3437808099524291</v>
+        <v>0.3436790712635555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5045239568777762</v>
+        <v>0.5040128683465726</v>
       </c>
     </row>
     <row r="12">
@@ -7804,19 +7804,19 @@
         <v>2359</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>517</v>
+        <v>956</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5573</v>
+        <v>5964</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07614133620543434</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01668145047467914</v>
+        <v>0.030864080127636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1798767292436869</v>
+        <v>0.1924848574772245</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -7825,19 +7825,19 @@
         <v>5876</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3363</v>
+        <v>3119</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10568</v>
+        <v>9885</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09881641173159483</v>
+        <v>0.09881641173159481</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0565625801877913</v>
+        <v>0.05244589701769229</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1777191331709311</v>
+        <v>0.1662448626841569</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -7846,19 +7846,19 @@
         <v>8235</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4907</v>
+        <v>5088</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13339</v>
+        <v>13214</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09104902761131047</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05425472543190937</v>
+        <v>0.05625071446756803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1474816427562815</v>
+        <v>0.1460992062992929</v>
       </c>
     </row>
     <row r="13">
@@ -7926,19 +7926,19 @@
         <v>1710</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4575</v>
+        <v>5336</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02203667992871232</v>
+        <v>0.02203667992871231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005188231861328564</v>
+        <v>0.00530310773153097</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05895536543763871</v>
+        <v>0.06876430823423429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -7947,19 +7947,19 @@
         <v>7679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4239</v>
+        <v>4102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12531</v>
+        <v>12619</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03555541351044178</v>
+        <v>0.03555541351044179</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01963018131546362</v>
+        <v>0.01899591986649022</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05802446819489741</v>
+        <v>0.05842870239447085</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -7968,19 +7968,19 @@
         <v>9389</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5552</v>
+        <v>5110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14644</v>
+        <v>14468</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03198213289191653</v>
+        <v>0.03198213289191652</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01891173613240823</v>
+        <v>0.01740759152762585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04988499136218804</v>
+        <v>0.04928281695633759</v>
       </c>
     </row>
     <row r="15">
@@ -7997,19 +7997,19 @@
         <v>20781</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15123</v>
+        <v>15173</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27807</v>
+        <v>28000</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.267818936533439</v>
+        <v>0.2678189365334389</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1948955625182266</v>
+        <v>0.1955497998708609</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3583651386126598</v>
+        <v>0.3608585473897022</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>131</v>
@@ -8018,19 +8018,19 @@
         <v>66038</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>56162</v>
+        <v>56716</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>75385</v>
+        <v>76621</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3057783095871008</v>
+        <v>0.3057783095871009</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2600494513133629</v>
+        <v>0.2626156920593371</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3490580189893663</v>
+        <v>0.3547804202627461</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>162</v>
@@ -8039,19 +8039,19 @@
         <v>86819</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>74369</v>
+        <v>74186</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>98210</v>
+        <v>98489</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2957448629477399</v>
+        <v>0.2957448629477398</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2533323632347728</v>
+        <v>0.2527122060262527</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3345479096020899</v>
+        <v>0.3354975022095386</v>
       </c>
     </row>
     <row r="16">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3790</v>
+        <v>3404</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0133084533469467</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04884740590178439</v>
+        <v>0.04386902110087799</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -8089,19 +8089,19 @@
         <v>1787</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4376</v>
+        <v>4881</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.008274412914110182</v>
+        <v>0.008274412914110185</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002089852733166009</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02026165533779931</v>
+        <v>0.02260110406858777</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -8110,19 +8110,19 @@
         <v>2820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>958</v>
+        <v>1053</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6577</v>
+        <v>6450</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.00960501381712953</v>
+        <v>0.009605013817129528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003261714592063879</v>
+        <v>0.003586613183299632</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02240424819167</v>
+        <v>0.02197290282028204</v>
       </c>
     </row>
     <row r="17">
@@ -8139,19 +8139,19 @@
         <v>42261</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35321</v>
+        <v>35763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49524</v>
+        <v>49847</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5446413114042687</v>
+        <v>0.5446413114042685</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4551998655294973</v>
+        <v>0.4608937868724813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6382388419848875</v>
+        <v>0.6424121202133867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>229</v>
@@ -8160,19 +8160,19 @@
         <v>120540</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>109723</v>
+        <v>109442</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131877</v>
+        <v>131256</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5581428732845299</v>
+        <v>0.55814287328453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5080545125590114</v>
+        <v>0.5067546705384196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6106362850490979</v>
+        <v>0.6077579022867537</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>296</v>
@@ -8181,19 +8181,19 @@
         <v>162801</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>150221</v>
+        <v>150045</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>177369</v>
+        <v>175922</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5545741315015156</v>
+        <v>0.5545741315015155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5117182744020652</v>
+        <v>0.5111201646572119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6041968110167208</v>
+        <v>0.5992677062718955</v>
       </c>
     </row>
     <row r="18">
@@ -8210,19 +8210,19 @@
         <v>6593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3404</v>
+        <v>3480</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11400</v>
+        <v>11356</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08496592505245498</v>
+        <v>0.08496592505245495</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04386344207193595</v>
+        <v>0.04485108036074534</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1469165013837802</v>
+        <v>0.1463527396601793</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -8231,19 +8231,19 @@
         <v>46363</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36970</v>
+        <v>37927</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56032</v>
+        <v>56515</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2146746720465803</v>
+        <v>0.2146746720465804</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1711817414228206</v>
+        <v>0.1756151334442401</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2594491382942737</v>
+        <v>0.2616831750850483</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>94</v>
@@ -8252,19 +8252,19 @@
         <v>52955</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>43123</v>
+        <v>42980</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>64288</v>
+        <v>63194</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.1803899700894604</v>
+        <v>0.1803899700894603</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1468972256152877</v>
+        <v>0.1464076547739807</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2189952350149104</v>
+        <v>0.2152681863629305</v>
       </c>
     </row>
     <row r="19">
@@ -8281,19 +8281,19 @@
         <v>3701</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1309</v>
+        <v>1359</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7612</v>
+        <v>8598</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04770336294781814</v>
+        <v>0.04770336294781813</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01687383364197412</v>
+        <v>0.01750949875504346</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09809951951435936</v>
+        <v>0.1108083925346433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -8302,19 +8302,19 @@
         <v>9320</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5634</v>
+        <v>5661</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13667</v>
+        <v>14128</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04315564880555363</v>
+        <v>0.04315564880555364</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02608724815011878</v>
+        <v>0.02621024267950458</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06328243638748081</v>
+        <v>0.0654178823347808</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -8323,19 +8323,19 @@
         <v>13022</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8499</v>
+        <v>8422</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18950</v>
+        <v>19680</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04435770362118437</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02895135759091743</v>
+        <v>0.02868919686560964</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06455122247949147</v>
+        <v>0.06703814724881875</v>
       </c>
     </row>
     <row r="20">
@@ -8355,16 +8355,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3288</v>
+        <v>3757</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.008344647466570095</v>
+        <v>0.008344647466570092</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04236997870325424</v>
+        <v>0.04842151120933273</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -8373,19 +8373,19 @@
         <v>2460</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>798</v>
+        <v>761</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6373</v>
+        <v>6091</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01139094060006147</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003692901796470404</v>
+        <v>0.003524276058460079</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02950874305489303</v>
+        <v>0.02820385780582923</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -8394,19 +8394,19 @@
         <v>3108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1065</v>
+        <v>1039</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7659</v>
+        <v>7852</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0105857423803878</v>
+        <v>0.01058574238038779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003628364404655181</v>
+        <v>0.003539764863867471</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02608984461020796</v>
+        <v>0.02674895147795724</v>
       </c>
     </row>
     <row r="21">
@@ -8423,19 +8423,19 @@
         <v>22122</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15923</v>
+        <v>16546</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29235</v>
+        <v>29507</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2850982629714338</v>
+        <v>0.2850982629714336</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.205210852211332</v>
+        <v>0.2132412304090537</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3767741010888086</v>
+        <v>0.3802690587081074</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -8444,19 +8444,19 @@
         <v>20748</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14967</v>
+        <v>15166</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27543</v>
+        <v>28016</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09607186389358023</v>
+        <v>0.09607186389358026</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0693000438871231</v>
+        <v>0.07022269425659562</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.127533689663542</v>
+        <v>0.1297255291461237</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>74</v>
@@ -8465,19 +8465,19 @@
         <v>42870</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34379</v>
+        <v>34152</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>52932</v>
+        <v>53385</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1460354469563735</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1171114606202568</v>
+        <v>0.1163380783970497</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1803093287306351</v>
+        <v>0.1818545866910796</v>
       </c>
     </row>
     <row r="22">
@@ -8494,19 +8494,19 @@
         <v>13736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9166</v>
+        <v>9167</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19890</v>
+        <v>20509</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1770206308748684</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1181324090199903</v>
+        <v>0.1181447061953542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2563375085142684</v>
+        <v>0.2643104128229892</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -8515,19 +8515,19 @@
         <v>44033</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35999</v>
+        <v>35782</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54020</v>
+        <v>53861</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2038870375888509</v>
+        <v>0.203887037588851</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1666896942271419</v>
+        <v>0.165683518483805</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2501328730288277</v>
+        <v>0.2493938331911991</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>103</v>
@@ -8536,19 +8536,19 @@
         <v>57769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47481</v>
+        <v>46761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>69037</v>
+        <v>68470</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1967856911631594</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1617402479917905</v>
+        <v>0.1592899346900395</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2351715165630446</v>
+        <v>0.2332405099388843</v>
       </c>
     </row>
     <row r="23">
@@ -8616,19 +8616,19 @@
         <v>4045</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1505</v>
+        <v>1343</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8889</v>
+        <v>8577</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03725064001981527</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01385945346027956</v>
+        <v>0.01236858423801795</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08186678863477623</v>
+        <v>0.07899752120273411</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -8637,19 +8637,19 @@
         <v>10239</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6049</v>
+        <v>5947</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15278</v>
+        <v>16018</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.03717615998184404</v>
+        <v>0.03717615998184405</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02196044001853972</v>
+        <v>0.02159277852515854</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05547016036116886</v>
+        <v>0.05815760713793084</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>23</v>
@@ -8658,19 +8658,19 @@
         <v>14284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9025</v>
+        <v>9528</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21398</v>
+        <v>21023</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03719721893155044</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02350296335789327</v>
+        <v>0.02481337920161776</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0557237795047418</v>
+        <v>0.05474552275018014</v>
       </c>
     </row>
     <row r="25">
@@ -8687,19 +8687,19 @@
         <v>23480</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16963</v>
+        <v>17191</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31158</v>
+        <v>31333</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2162579602402793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1562361538393017</v>
+        <v>0.1583329856122781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2869673537276235</v>
+        <v>0.2885784679655694</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>148</v>
@@ -8708,19 +8708,19 @@
         <v>75295</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65186</v>
+        <v>64375</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87217</v>
+        <v>86081</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2733732367841714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2366701653125459</v>
+        <v>0.233727929998526</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3166590984155079</v>
+        <v>0.3125354102616713</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>184</v>
@@ -8729,19 +8729,19 @@
         <v>98775</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86513</v>
+        <v>86008</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111738</v>
+        <v>113577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2572241078502011</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2252900549994626</v>
+        <v>0.2239764350763035</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.29097976522133</v>
+        <v>0.2957699644937401</v>
       </c>
     </row>
     <row r="26">
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3992</v>
+        <v>3438</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009510943641865922</v>
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03676427017755933</v>
+        <v>0.03166371045422879</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -8782,16 +8782,16 @@
         <v>468</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5216</v>
+        <v>4744</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006488056625752535</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00169827402983716</v>
+        <v>0.00169857946879531</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0189380216403978</v>
+        <v>0.01722480605814099</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -8800,19 +8800,19 @@
         <v>2820</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6635</v>
+        <v>6489</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007342766523524365</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00267863021448026</v>
+        <v>0.002643720474610946</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01727939026323369</v>
+        <v>0.01689873397969786</v>
       </c>
     </row>
     <row r="27">
@@ -8829,19 +8829,19 @@
         <v>53787</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>44946</v>
+        <v>44837</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>62045</v>
+        <v>62481</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4953820281619114</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4139546664433064</v>
+        <v>0.41295069601322</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5714460888680083</v>
+        <v>0.5754556056541611</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>288</v>
@@ -8850,19 +8850,19 @@
         <v>152671</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>141539</v>
+        <v>140380</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>165476</v>
+        <v>164654</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5543010829444253</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5138843019793787</v>
+        <v>0.5096775015769961</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6007935047953623</v>
+        <v>0.5978108457559543</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>373</v>
@@ -8871,19 +8871,19 @@
         <v>206457</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>190398</v>
+        <v>190460</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>220889</v>
+        <v>222069</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5376419425195467</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4958209510127506</v>
+        <v>0.4959833005710579</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5752238568552629</v>
+        <v>0.578298275574024</v>
       </c>
     </row>
     <row r="28">
@@ -8900,19 +8900,19 @@
         <v>14260</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9070</v>
+        <v>9002</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21067</v>
+        <v>21552</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1313411637542455</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08353435566703295</v>
+        <v>0.08290542847681764</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1940280290671074</v>
+        <v>0.1985000221308302</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>106</v>
@@ -8921,19 +8921,19 @@
         <v>59356</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>49115</v>
+        <v>49116</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>69968</v>
+        <v>70157</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2155047453801211</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.178320164640191</v>
+        <v>0.1783239936223067</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2540310172867332</v>
+        <v>0.2547204701340161</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>127</v>
@@ -8942,19 +8942,19 @@
         <v>73617</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61548</v>
+        <v>62361</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>87257</v>
+        <v>86527</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1917078102435732</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1602787391689296</v>
+        <v>0.1623958438889028</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2272286635536672</v>
+        <v>0.2253268662920381</v>
       </c>
     </row>
     <row r="29">
@@ -8971,19 +8971,19 @@
         <v>5947</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05476840324354136</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -8992,19 +8992,19 @@
         <v>12697</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7705</v>
+        <v>8328</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18140</v>
+        <v>18510</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04609895414009209</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02797553798366722</v>
+        <v>0.03023741909789351</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06586212613972538</v>
+        <v>0.06720282034853467</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>35</v>
@@ -9013,19 +9013,19 @@
         <v>18644</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12989</v>
+        <v>13204</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26212</v>
+        <v>25452</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04855020816230635</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03382630851117586</v>
+        <v>0.03438562214179337</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06825950954912456</v>
+        <v>0.06628058355422151</v>
       </c>
     </row>
     <row r="30">
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3223</v>
+        <v>3288</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.005963538338885629</v>
@@ -9054,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02968872618746502</v>
+        <v>0.0302787203239714</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -9063,19 +9063,19 @@
         <v>2460</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>606</v>
+        <v>785</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6550</v>
+        <v>6087</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.008931759679016457</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002198418007395228</v>
+        <v>0.002851672180222958</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02378151520428646</v>
+        <v>0.02210053764639715</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -9084,19 +9084,19 @@
         <v>3108</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>998</v>
+        <v>1036</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7755</v>
+        <v>7371</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008092506294862774</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002598706735829268</v>
+        <v>0.002697700900881169</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02019595535816887</v>
+        <v>0.01919449131511349</v>
       </c>
     </row>
     <row r="31">
@@ -9113,19 +9113,19 @@
         <v>39743</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>31292</v>
+        <v>31924</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>48005</v>
+        <v>47925</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3660426200363449</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2882034640851892</v>
+        <v>0.2940285033285617</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4421319111288348</v>
+        <v>0.441398832475243</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>76</v>
@@ -9134,19 +9134,19 @@
         <v>41340</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>33398</v>
+        <v>33561</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51414</v>
+        <v>51430</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1500927655139599</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1212592061843816</v>
+        <v>0.1218513620123078</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1866698345938961</v>
+        <v>0.1867254620843308</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>136</v>
@@ -9155,19 +9155,19 @@
         <v>81083</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68430</v>
+        <v>68782</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>93233</v>
+        <v>94266</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2111517720526767</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1782016271123139</v>
+        <v>0.179118258023532</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.242791409894557</v>
+        <v>0.2454800468021189</v>
       </c>
     </row>
     <row r="32">
@@ -9184,19 +9184,19 @@
         <v>16095</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10759</v>
+        <v>10571</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>22895</v>
+        <v>23060</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1482351596738313</v>
+        <v>0.1482351596738314</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09909327364845297</v>
+        <v>0.09736265146777222</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2108698350659924</v>
+        <v>0.2123886264706817</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>92</v>
@@ -9205,19 +9205,19 @@
         <v>49909</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>40949</v>
+        <v>40886</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>60671</v>
+        <v>59740</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1812034254498298</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1486734213580845</v>
+        <v>0.1484430797209509</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2202779260496186</v>
+        <v>0.2168962575360646</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -9226,19 +9226,19 @@
         <v>66003</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>54467</v>
+        <v>55701</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>78985</v>
+        <v>78910</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.1718817726983657</v>
+        <v>0.1718817726983658</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1418387389605381</v>
+        <v>0.1450516379981255</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2056875482515922</v>
+        <v>0.2054913006755562</v>
       </c>
     </row>
     <row r="33">
